--- a/데이터 샘플 230531/데이터설명.xlsx
+++ b/데이터 샘플 230531/데이터설명.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB605D2B-6013-4A99-8E40-474CC9D0AD7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F80544-9705-4088-980F-05E35C38C44B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="컬럼정보" sheetId="1" r:id="rId1"/>
@@ -98,22 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>해당 건물에서 면적 합이 가장 큰 층용도 면적의 비율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 건물에서 면적 합이 가장 큰 층용도 면적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 건물에서 면적 합이 가장 큰 층용도 명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 건물에서 면적 합이 가장 큰 층용도 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,6 +280,22 @@
   </si>
   <si>
     <t>층용도 엔트로피 계산식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(지하층 제외) 해당 건물에서 면적 합이 가장 큰 층용도 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(지하층 제외) 해당 건물에서 면적 합이 가장 큰 층용도 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(지하층 제외) 해당 건물에서 면적 합이 가장 큰 층용도 면적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(지하층 제외) 해당 건물에서 면적 합이 가장 큰 층용도 면적의 비율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,7 +676,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -715,7 +715,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -726,7 +726,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -737,7 +737,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -748,7 +748,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -759,7 +759,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -770,7 +770,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -782,10 +782,10 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="2"/>
@@ -798,37 +798,37 @@
         <v>9</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E12" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E13" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E14" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G14" s="2"/>
     </row>
